--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r-moc\Desktop\AI作成\経費精算\ver3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD384E6-C955-4C9C-81A0-9EFD25FC5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54483EA-5D5A-49BB-A532-4637476F557D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF7C88A7-CE9F-4C60-ABDA-AB32F0823EB5}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>/</t>
     <phoneticPr fontId="2"/>
@@ -321,6 +321,16 @@
     <t>ICカード交通費</t>
     <rPh sb="5" eb="8">
       <t>コウツウヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>駐車場代</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -802,6 +812,102 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -814,104 +920,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1285,7 +1295,7 @@
   <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:N10"/>
+      <selection activeCell="H11" sqref="H11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -1310,31 +1320,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="52"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:31" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:31" ht="22.5" customHeight="1">
       <c r="H3" s="26"/>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
       <c r="Q3" s="25"/>
       <c r="X3" s="24" t="s">
         <v>23</v>
@@ -1346,14 +1356,14 @@
       <c r="Y4" s="16"/>
     </row>
     <row r="5" spans="1:31" ht="24.75" customHeight="1">
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="47" t="e">
-        <f>SUM(P9:R29,#REF!)</f>
-        <v>#REF!</v>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47">
+        <f>SUM(P9:R29)</f>
+        <v>0</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
@@ -1361,20 +1371,20 @@
       <c r="K5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="77" t="e">
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="77">
         <f>G5+G6</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="P5" s="78"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="78"/>
       <c r="S5" s="78"/>
-      <c r="T5" s="67" t="s">
+      <c r="T5" s="55" t="s">
         <v>20</v>
       </c>
       <c r="X5" s="17"/>
@@ -1384,14 +1394,14 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="24.75" customHeight="1">
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="47" t="e">
-        <f>SUM(S9:V29,#REF!)</f>
-        <v>#REF!</v>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47">
+        <f>SUM(S9:V29)</f>
+        <v>0</v>
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
@@ -1399,15 +1409,15 @@
       <c r="K6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
       <c r="O6" s="79"/>
       <c r="P6" s="80"/>
       <c r="Q6" s="80"/>
       <c r="R6" s="80"/>
       <c r="S6" s="80"/>
-      <c r="T6" s="68"/>
+      <c r="T6" s="56"/>
       <c r="X6" s="17"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="21" t="s">
@@ -1416,11 +1426,11 @@
       <c r="AA6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="69" t="s">
+      <c r="AB6" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="71"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="59"/>
       <c r="AE6" s="21" t="s">
         <v>17</v>
       </c>
@@ -1441,39 +1451,39 @@
     </row>
     <row r="8" spans="1:31" s="18" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="33"/>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="72" t="s">
+      <c r="P8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72" t="s">
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="27"/>
@@ -1486,29 +1496,29 @@
       <c r="AE8" s="31"/>
     </row>
     <row r="9" spans="1:31" ht="21" customHeight="1">
-      <c r="B9" s="38"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="44"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
       <c r="S9" s="47"/>
       <c r="T9" s="48"/>
       <c r="U9" s="48"/>
-      <c r="V9" s="49"/>
+      <c r="V9" s="69"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="27"/>
@@ -1521,28 +1531,30 @@
       <c r="AE9" s="31"/>
     </row>
     <row r="10" spans="1:31" ht="21" customHeight="1">
-      <c r="B10" s="50"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="44"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
       <c r="O10" s="28"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
       <c r="S10" s="47"/>
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
-      <c r="V10" s="49"/>
-      <c r="X10" s="73" t="s">
+      <c r="V10" s="69"/>
+      <c r="X10" s="61" t="s">
         <v>11</v>
       </c>
       <c r="Y10" s="16"/>
@@ -1556,28 +1568,28 @@
       <c r="AE10" s="31"/>
     </row>
     <row r="11" spans="1:31" ht="21" customHeight="1">
-      <c r="B11" s="50"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="65"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
       <c r="S11" s="47"/>
       <c r="T11" s="48"/>
       <c r="U11" s="48"/>
-      <c r="V11" s="49"/>
-      <c r="X11" s="74"/>
+      <c r="V11" s="69"/>
+      <c r="X11" s="62"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="27"/>
       <c r="AA11" s="14"/>
@@ -1589,27 +1601,27 @@
       <c r="AE11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="21" customHeight="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="28"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
       <c r="S12" s="47"/>
       <c r="T12" s="48"/>
       <c r="U12" s="48"/>
-      <c r="V12" s="49"/>
+      <c r="V12" s="69"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="27"/>
@@ -1622,27 +1634,27 @@
       <c r="AE12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="21" customHeight="1">
-      <c r="B13" s="50"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
       <c r="S13" s="47"/>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
-      <c r="V13" s="49"/>
+      <c r="V13" s="69"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="13"/>
@@ -1653,27 +1665,27 @@
       <c r="AE13" s="31"/>
     </row>
     <row r="14" spans="1:31" ht="21" customHeight="1">
-      <c r="B14" s="50"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="44"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
       <c r="S14" s="47"/>
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
-      <c r="V14" s="49"/>
+      <c r="V14" s="69"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="14"/>
       <c r="AB14" s="13"/>
@@ -1684,27 +1696,27 @@
       <c r="AE14" s="31"/>
     </row>
     <row r="15" spans="1:31" ht="21" customHeight="1">
-      <c r="B15" s="50"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="44"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="65"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
       <c r="S15" s="47"/>
       <c r="T15" s="48"/>
       <c r="U15" s="48"/>
-      <c r="V15" s="49"/>
+      <c r="V15" s="69"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="13"/>
@@ -1715,27 +1727,27 @@
       <c r="AE15" s="31"/>
     </row>
     <row r="16" spans="1:31" ht="21" customHeight="1">
-      <c r="B16" s="50"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
       <c r="S16" s="47"/>
       <c r="T16" s="48"/>
       <c r="U16" s="48"/>
-      <c r="V16" s="49"/>
+      <c r="V16" s="69"/>
       <c r="Z16" s="27"/>
       <c r="AA16" s="14"/>
       <c r="AB16" s="13"/>
@@ -1746,306 +1758,306 @@
       <c r="AE16" s="31"/>
     </row>
     <row r="17" spans="2:28" ht="21" customHeight="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="44"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
       <c r="S17" s="47"/>
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
-      <c r="V17" s="49"/>
+      <c r="V17" s="69"/>
       <c r="Z17" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="21" customHeight="1">
-      <c r="B18" s="50"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
       <c r="S18" s="47"/>
       <c r="T18" s="48"/>
       <c r="U18" s="48"/>
-      <c r="V18" s="49"/>
+      <c r="V18" s="69"/>
     </row>
     <row r="19" spans="2:28" ht="21" customHeight="1">
-      <c r="B19" s="50"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="44"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="65"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
       <c r="S19" s="47"/>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
-      <c r="V19" s="49"/>
+      <c r="V19" s="69"/>
     </row>
     <row r="20" spans="2:28" ht="21" customHeight="1">
-      <c r="B20" s="50"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="44"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="47"/>
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
-      <c r="V20" s="49"/>
+      <c r="V20" s="69"/>
     </row>
     <row r="21" spans="2:28" ht="21" customHeight="1">
-      <c r="B21" s="50"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
       <c r="S21" s="47"/>
       <c r="T21" s="48"/>
       <c r="U21" s="48"/>
-      <c r="V21" s="49"/>
+      <c r="V21" s="69"/>
     </row>
     <row r="22" spans="2:28" ht="21" customHeight="1">
-      <c r="B22" s="50"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="65"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
       <c r="S22" s="47"/>
       <c r="T22" s="48"/>
       <c r="U22" s="48"/>
-      <c r="V22" s="49"/>
+      <c r="V22" s="69"/>
     </row>
     <row r="23" spans="2:28" ht="21" customHeight="1">
-      <c r="B23" s="50"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="44"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
       <c r="S23" s="47"/>
       <c r="T23" s="48"/>
       <c r="U23" s="48"/>
-      <c r="V23" s="49"/>
+      <c r="V23" s="69"/>
     </row>
     <row r="24" spans="2:28" ht="21" customHeight="1">
-      <c r="B24" s="50"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="44"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="65"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
       <c r="S24" s="47"/>
       <c r="T24" s="48"/>
       <c r="U24" s="48"/>
-      <c r="V24" s="49"/>
+      <c r="V24" s="69"/>
     </row>
     <row r="25" spans="2:28" ht="21" customHeight="1">
-      <c r="B25" s="50"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="44"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="65"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
       <c r="S25" s="47"/>
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
-      <c r="V25" s="49"/>
+      <c r="V25" s="69"/>
     </row>
     <row r="26" spans="2:28" ht="21" customHeight="1">
-      <c r="B26" s="50"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="44"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="65"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
       <c r="S26" s="47"/>
       <c r="T26" s="48"/>
       <c r="U26" s="48"/>
-      <c r="V26" s="49"/>
+      <c r="V26" s="69"/>
     </row>
     <row r="27" spans="2:28" ht="21" customHeight="1">
-      <c r="B27" s="50"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="65"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
       <c r="S27" s="47"/>
       <c r="T27" s="48"/>
       <c r="U27" s="48"/>
-      <c r="V27" s="49"/>
+      <c r="V27" s="69"/>
     </row>
     <row r="28" spans="2:28" ht="21" customHeight="1">
-      <c r="B28" s="38"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="44"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="65"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
       <c r="S28" s="47"/>
       <c r="T28" s="48"/>
       <c r="U28" s="48"/>
-      <c r="V28" s="49"/>
+      <c r="V28" s="69"/>
     </row>
     <row r="29" spans="2:28" ht="21" customHeight="1">
-      <c r="B29" s="38"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="44"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="65"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
       <c r="S29" s="47"/>
       <c r="T29" s="48"/>
       <c r="U29" s="48"/>
-      <c r="V29" s="49"/>
+      <c r="V29" s="69"/>
     </row>
     <row r="30" spans="2:28" ht="14.25"/>
     <row r="31" spans="2:28" ht="22.5" customHeight="1">
@@ -2054,21 +2066,21 @@
       </c>
       <c r="E31" s="75"/>
       <c r="F31" s="76"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
       <c r="K31" s="81" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="75"/>
       <c r="M31" s="76"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
       <c r="T31" s="12" t="s">
         <v>7</v>
       </c>
